--- a/archivos/parametros.xlsx
+++ b/archivos/parametros.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -106,22 +106,43 @@
     <t xml:space="preserve">ENCARGADOS</t>
   </si>
   <si>
+    <t xml:space="preserve">EMAIL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jose Alfaro</t>
   </si>
   <si>
+    <t xml:space="preserve">josealfaro@gmail.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Andres Garcia</t>
   </si>
   <si>
+    <t xml:space="preserve">andresgar@xxxx.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mario Vargas</t>
   </si>
   <si>
+    <t xml:space="preserve">mariovargas@yyy.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stella Gomez</t>
   </si>
   <si>
+    <t xml:space="preserve">stellagomez@nnn.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sandra Moreno</t>
   </si>
   <si>
+    <t xml:space="preserve">Sandramoreno@sss.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">josea_garciat@hotmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">EMPRESA</t>
@@ -244,7 +265,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -273,11 +294,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -360,8 +385,8 @@
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -444,7 +469,7 @@
   </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -539,54 +564,83 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1048576"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="20.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>31</v>
+      <c r="A6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
+      <c r="A7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="andresgar@xxxx.com"/>
+    <hyperlink ref="B4" r:id="rId2" display="mariovargas@yyy.com"/>
+    <hyperlink ref="B5" r:id="rId3" display="stellagomez@nnn.com"/>
+    <hyperlink ref="B6" r:id="rId4" display="Sandramoreno@sss.com"/>
+    <hyperlink ref="B7" r:id="rId5" display="josea_garciat@hotmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -604,20 +658,20 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>33</v>
+      <c r="A1" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>34</v>
+      <c r="A2" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/archivos/parametros.xlsx
+++ b/archivos/parametros.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -64,45 +64,90 @@
     <t xml:space="preserve">SERVICIOS</t>
   </si>
   <si>
+    <t xml:space="preserve">VALOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDCALENDAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peluqueria</t>
   </si>
   <si>
+    <t xml:space="preserve">ba6000578facbb0df71389d7c4b76555afe42838fc641f417d7cc3a91bf86b7f@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Mercado</t>
   </si>
   <si>
+    <t xml:space="preserve">ebd1ed404fd7c23d10dc5ee277f470bc28942fdd19879aec16a61add832897f2@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Cita Medica</t>
   </si>
   <si>
+    <t xml:space="preserve">cba31f328b4ec714869a2becbecd214ddf68c8bf74cc0aac984fc0f9c5ddb36f@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Banco</t>
   </si>
   <si>
+    <t xml:space="preserve">ed26cef01eaf4ba394d77252c097fc4da150a2624db87bf96b25f900483201bd@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Taller</t>
   </si>
   <si>
+    <t xml:space="preserve">afe8f37afe5e919952f780062fd693d57680899895c7dbad0878f2dbf8c91be2@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ferreteria</t>
   </si>
   <si>
+    <t xml:space="preserve">ac9164e4adb34328aafee5b87fe610a44a616df06944a585d64060f4b29ee8b5@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Juzgado</t>
   </si>
   <si>
+    <t xml:space="preserve">3e434060d0f95a7a15966031efc94bd591fd1b37d470228a3f66d9158ab9e83a@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Impuestos</t>
   </si>
   <si>
+    <t xml:space="preserve">9e5cb9aeb1d7ee6500e2b9a02118270b7c14b97adba9860492656d69ab5d9f54@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Iglesia</t>
   </si>
   <si>
+    <t xml:space="preserve">790891854a9130f51711b964bdd84024cbb5e6fdc0cbcb479cae3248dabdfc9b@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Celebracion</t>
   </si>
   <si>
+    <t xml:space="preserve">1e87a215fbe5b4350a345065b46f886015205618e5350077e847392f6f29af8b@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Familia</t>
   </si>
   <si>
+    <t xml:space="preserve">family03761753017923947946@group.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Cumpleaños</t>
   </si>
   <si>
+    <t xml:space="preserve">addressbook#contacts@group.v.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">Festivos</t>
   </si>
   <si>
+    <t xml:space="preserve">es.co#holiday@group.v.calendar.google.com </t>
+  </si>
+  <si>
     <t xml:space="preserve">ENCARGADOS</t>
   </si>
   <si>
@@ -112,7 +157,7 @@
     <t xml:space="preserve">Jose Alfaro</t>
   </si>
   <si>
-    <t xml:space="preserve">josealfaro@gmail.com </t>
+    <t xml:space="preserve">josealfaro@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Andres Garcia</t>
@@ -265,7 +310,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -286,6 +331,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,7 +343,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -467,88 +516,177 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="90.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>15</v>
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
+      <c r="A5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="ebd1ed404fd7c23d10dc5ee277f470bc28942fdd19879aec16a61add832897f2@group.calendar"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -567,79 +705,80 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>31</v>
+      <c r="A3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>33</v>
+      <c r="A4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>35</v>
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>37</v>
+      <c r="A6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>39</v>
+      <c r="A7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="andresgar@xxxx.com"/>
-    <hyperlink ref="B4" r:id="rId2" display="mariovargas@yyy.com"/>
-    <hyperlink ref="B5" r:id="rId3" display="stellagomez@nnn.com"/>
-    <hyperlink ref="B6" r:id="rId4" display="Sandramoreno@sss.com"/>
-    <hyperlink ref="B7" r:id="rId5" display="josea_garciat@hotmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="josealfaro@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="andresgar@xxxx.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="mariovargas@yyy.com"/>
+    <hyperlink ref="B5" r:id="rId4" display="stellagomez@nnn.com"/>
+    <hyperlink ref="B6" r:id="rId5" display="Sandramoreno@sss.com"/>
+    <hyperlink ref="B7" r:id="rId6" display="josea_garciat@hotmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -666,12 +805,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>41</v>
+      <c r="A2" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/archivos/parametros.xlsx
+++ b/archivos/parametros.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="servicio" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="encargado" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="sw" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="estado" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -194,6 +195,18 @@
   </si>
   <si>
     <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTADDOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSPENDIDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMINADO</t>
   </si>
 </sst>
 </file>
@@ -518,8 +531,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -822,4 +835,51 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/archivos/parametros.xlsx
+++ b/archivos/parametros.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -194,7 +194,13 @@
     <t xml:space="preserve">EMPRESA</t>
   </si>
   <si>
+    <t xml:space="preserve">SHEETURL</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1hvqq_x2xTFzgBWNI4eqWiLrB68UqK3k_h1IIlMinkAM/edit?hl=es&amp;pli=1&amp;gid=0#gid=0</t>
   </si>
   <si>
     <t xml:space="preserve">ESTADDOS</t>
@@ -344,28 +350,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -539,7 +545,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="17.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="90.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="90.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,7 +555,7 @@
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -698,7 +704,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="ebd1ed404fd7c23d10dc5ee277f470bc28942fdd19879aec16a61add832897f2@group.calendar"/>
+    <hyperlink ref="C3" r:id="rId1" display="ebd1ed404fd7c23d10dc5ee277f470bc28942fdd19879aec16a61add832897f2@group.calendar.google.com "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -739,7 +745,7 @@
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -768,7 +774,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -776,7 +782,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -808,25 +814,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="103.2"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>56</v>
+      <c r="A2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="gid=0" display="https://docs.google.com/spreadsheets/d/1hvqq_x2xTFzgBWNI4eqWiLrB68UqK3k_h1IIlMinkAM/edit?hl=es&amp;pli=1&amp;gid=0#gid=0"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -844,33 +862,33 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="13.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>57</v>
+      <c r="A1" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>58</v>
+      <c r="A2" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>59</v>
+      <c r="A3" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>60</v>
+      <c r="A4" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
